--- a/Felipe-Sprint-2-exercicios/InLock/ModeloFisíco.xlsx
+++ b/Felipe-Sprint-2-exercicios/InLock/ModeloFisíco.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFE754E-69DE-43AB-B18A-E2DCEC6006AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a9320310dbb1e3c/Área de Trabalho/Felipe-Sprint-2-Exercicios/Felipe-Sprint-2-exercicios/InLock/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{4CFE754E-69DE-43AB-B18A-E2DCEC6006AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DBFD8EC4-6DF1-47B1-9D43-55EF2DE79256}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InLock" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Jogo</t>
   </si>
@@ -72,6 +77,45 @@
   </si>
   <si>
     <t>Square Enix</t>
+  </si>
+  <si>
+    <t>TipoUsuarios</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>IdTipoUsuario</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>admin@admin.com</t>
+  </si>
+  <si>
+    <t>cliente@cliente.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>cliente</t>
   </si>
 </sst>
 </file>
@@ -81,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +133,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +185,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,51 +258,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -231,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,128 +652,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A3" s="10">
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>41044</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10">
         <v>99</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>43399</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
         <v>120</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="H5" s="7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="6">
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{D760707A-33F3-41E7-B0D6-6416EDE25944}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{33913DB3-1ABA-45DB-B78B-D49015FE0B02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>